--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9064,15 +9064,90 @@
         <v>76.98</v>
       </c>
       <c r="D345" t="n">
-        <v>82.65000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E345" t="n">
         <v>76.878</v>
       </c>
       <c r="F345" t="n">
-        <v>82.3567</v>
+        <v>79.9662</v>
       </c>
       <c r="G345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRUB</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>80.01090000000001</v>
+      </c>
+      <c r="D346" t="n">
+        <v>81.56740000000001</v>
+      </c>
+      <c r="E346" t="n">
+        <v>74.845</v>
+      </c>
+      <c r="F346" t="n">
+        <v>81.54470000000001</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRUB</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>81.53619999999999</v>
+      </c>
+      <c r="D347" t="n">
+        <v>89.77500000000001</v>
+      </c>
+      <c r="E347" t="n">
+        <v>79.68300000000001</v>
+      </c>
+      <c r="F347" t="n">
+        <v>88.8249</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRUB</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D348" t="n">
+        <v>94.47750000000001</v>
+      </c>
+      <c r="E348" t="n">
+        <v>87.988</v>
+      </c>
+      <c r="F348" t="n">
+        <v>91.2573</v>
+      </c>
+      <c r="G348" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
@@ -9145,7 +9145,7 @@
         <v>87.988</v>
       </c>
       <c r="F348" t="n">
-        <v>91.2573</v>
+        <v>90.32299999999999</v>
       </c>
       <c r="G348" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G348"/>
+  <dimension ref="A1:G349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>34610.33333333334</v>
+        <v>34610.375</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>34974.33333333334</v>
+        <v>34974.375</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>35156.33333333334</v>
+        <v>35156.375</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>35521.33333333334</v>
+        <v>35521.375</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -9145,9 +9145,34 @@
         <v>87.988</v>
       </c>
       <c r="F348" t="n">
-        <v>90.32299999999999</v>
+        <v>91.74509999999999</v>
       </c>
       <c r="G348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRUB</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>91.200999</v>
+      </c>
+      <c r="D349" t="n">
+        <v>96.7649</v>
+      </c>
+      <c r="E349" t="n">
+        <v>90.655</v>
+      </c>
+      <c r="F349" t="n">
+        <v>95.86199999999999</v>
+      </c>
+      <c r="G349" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>34610.375</v>
+        <v>34610.33333333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>34974.375</v>
+        <v>34974.33333333334</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>35156.375</v>
+        <v>35156.33333333334</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>35521.375</v>
+        <v>35521.33333333334</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -9164,13 +9164,13 @@
         <v>91.200999</v>
       </c>
       <c r="D349" t="n">
-        <v>96.7649</v>
+        <v>102.355</v>
       </c>
       <c r="E349" t="n">
         <v>90.655</v>
       </c>
       <c r="F349" t="n">
-        <v>95.86199999999999</v>
+        <v>98.2225</v>
       </c>
       <c r="G349" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
@@ -9170,7 +9170,7 @@
         <v>90.655</v>
       </c>
       <c r="F349" t="n">
-        <v>98.2225</v>
+        <v>95.050999</v>
       </c>
       <c r="G349" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G349"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9170,9 +9170,84 @@
         <v>90.655</v>
       </c>
       <c r="F349" t="n">
-        <v>95.050999</v>
+        <v>95.87609999999999</v>
       </c>
       <c r="G349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRUB</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>95.8656</v>
+      </c>
+      <c r="D350" t="n">
+        <v>98.62820000000001</v>
+      </c>
+      <c r="E350" t="n">
+        <v>92.88200000000001</v>
+      </c>
+      <c r="F350" t="n">
+        <v>96.4802</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRUB</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>96.476</v>
+      </c>
+      <c r="D351" t="n">
+        <v>102.55</v>
+      </c>
+      <c r="E351" t="n">
+        <v>91.45699999999999</v>
+      </c>
+      <c r="F351" t="n">
+        <v>93.3212</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRUB</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>93.27500000000001</v>
+      </c>
+      <c r="D352" t="n">
+        <v>94.10250000000001</v>
+      </c>
+      <c r="E352" t="n">
+        <v>91.08</v>
+      </c>
+      <c r="F352" t="n">
+        <v>91.9044</v>
+      </c>
+      <c r="G352" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
@@ -9242,10 +9242,10 @@
         <v>94.10250000000001</v>
       </c>
       <c r="E352" t="n">
-        <v>91.08</v>
+        <v>88.105</v>
       </c>
       <c r="F352" t="n">
-        <v>91.9044</v>
+        <v>88.89</v>
       </c>
       <c r="G352" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Russia_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8497,9 +8497,32 @@
         <v>87.027</v>
       </c>
       <c r="F352">
-        <v>87.93000000000001</v>
+        <v>89.9708</v>
       </c>
       <c r="G352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353">
+        <v>89.97629999999999</v>
+      </c>
+      <c r="D353">
+        <v>92.6332</v>
+      </c>
+      <c r="E353">
+        <v>88.607</v>
+      </c>
+      <c r="F353">
+        <v>92.59610000000001</v>
+      </c>
+      <c r="G353">
         <v>0</v>
       </c>
     </row>
